--- a/DBA/Reportes BI/2021/Facturación/Objetivos.xlsx
+++ b/DBA/Reportes BI/2021/Facturación/Objetivos.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iachenbach\Desktop\FACOEP\DBA\Reportes BI\2021\Facturación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iachenbach\Gobierno de la Ciudad de Buenos Aires\Pablo Alfredo Gadea - Tablero Facoep P BI\FACOEP\DBA\Reportes BI\2021\Facturación\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,8 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="objetivos_data" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="44">
   <si>
     <t>Efector</t>
   </si>
@@ -50,9 +51,6 @@
     <t>Carrillo</t>
   </si>
   <si>
-    <t>Primer Nivel</t>
-  </si>
-  <si>
     <t>Dueñas</t>
   </si>
   <si>
@@ -80,9 +78,6 @@
     <t>María Ferrer</t>
   </si>
   <si>
-    <t>Marie Curie</t>
-  </si>
-  <si>
     <t>Moyano</t>
   </si>
   <si>
@@ -146,9 +141,6 @@
     <t>Cesacs</t>
   </si>
   <si>
-    <t>Talleres Protegidos</t>
-  </si>
-  <si>
     <t>Año</t>
   </si>
   <si>
@@ -159,17 +151,23 @@
   </si>
   <si>
     <t>Objetivo Mensual OOSS</t>
+  </si>
+  <si>
+    <t>Maria Curie</t>
+  </si>
+  <si>
+    <t>No se toma en cuenta PAMI. Y se utilza para el calculo la columna OBJETIVO ANUAL TOTAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +202,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -227,7 +231,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -240,6 +244,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -352,8 +358,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tabla_objetivos" displayName="tabla_objetivos" ref="A1:E77" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A1:E77"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tabla_objetivos" displayName="tabla_objetivos" ref="A1:E113" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:E113">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Cesacs"/>
+        <filter val="Primer Nivel"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="5">
     <tableColumn id="1" name="Efector" dataDxfId="3"/>
     <tableColumn id="2" name="Objetivo Anual Total" dataDxfId="2" dataCellStyle="Moneda 2"/>
@@ -630,17 +643,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:H125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="4" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -651,16 +665,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -678,7 +692,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -696,7 +710,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -714,7 +728,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -732,7 +746,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -751,8 +765,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
+      <c r="A7" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B7" s="2">
         <v>4309949.211799439</v>
@@ -768,9 +782,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2">
         <v>14323464.4196283</v>
@@ -786,9 +800,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2">
         <v>208908059.55818415</v>
@@ -804,9 +818,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2">
         <v>220676964.53489444</v>
@@ -822,9 +836,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2">
         <v>277200569.48309255</v>
@@ -840,9 +854,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2">
         <v>13477837.931765458</v>
@@ -858,9 +872,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2">
         <v>613754880.39053059</v>
@@ -876,9 +890,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2">
         <v>21119326.139909901</v>
@@ -894,9 +908,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2">
         <v>35605404.055620536</v>
@@ -912,9 +926,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2">
         <v>57126369.585742474</v>
@@ -930,9 +944,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>18</v>
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>42</v>
       </c>
       <c r="B17" s="2">
         <v>114158090.91587317</v>
@@ -948,9 +962,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2">
         <v>117232996.43226424</v>
@@ -966,9 +980,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2">
         <v>211285843.80561653</v>
@@ -984,9 +998,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2">
         <v>144556091.14282301</v>
@@ -1002,9 +1016,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2">
         <v>76136515.748006299</v>
@@ -1020,9 +1034,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2">
         <v>194041742.67449522</v>
@@ -1038,9 +1052,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2">
         <v>80207378.480205059</v>
@@ -1056,9 +1070,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2">
         <v>2872351.9295523083</v>
@@ -1074,9 +1088,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2">
         <v>179775152.80750933</v>
@@ -1092,9 +1106,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2">
         <v>94436875.326741129</v>
@@ -1110,9 +1124,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2">
         <v>57938908.935636155</v>
@@ -1128,9 +1142,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2">
         <v>155255616.52124327</v>
@@ -1146,9 +1160,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2">
         <v>78422149.680198431</v>
@@ -1164,9 +1178,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2">
         <v>191870641.04287004</v>
@@ -1182,9 +1196,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2">
         <v>111119337.51050107</v>
@@ -1200,9 +1214,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>33</v>
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
       </c>
       <c r="B32" s="2">
         <v>17024079.413973249</v>
@@ -1218,9 +1232,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2">
         <v>15341813.143465081</v>
@@ -1236,9 +1250,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2">
         <v>24266855.500305079</v>
@@ -1254,9 +1268,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2">
         <v>133131911.96462815</v>
@@ -1272,9 +1286,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2">
         <v>38338927.064256221</v>
@@ -1290,9 +1304,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2">
         <v>60646431.044986278</v>
@@ -1308,7 +1322,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1326,7 +1340,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>4</v>
       </c>
@@ -1344,7 +1358,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>5</v>
       </c>
@@ -1362,8 +1376,8 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B41" s="2">
@@ -1380,7 +1394,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>7</v>
       </c>
@@ -1400,7 +1414,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B43" s="2">
         <v>6188822.8565182919</v>
@@ -1416,9 +1430,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B44" s="2">
         <v>18272390.699450575</v>
@@ -1434,9 +1448,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B45" s="2">
         <v>193540674.37486842</v>
@@ -1452,9 +1466,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B46" s="2">
         <v>276462382.98924297</v>
@@ -1470,9 +1484,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B47" s="2">
         <v>229030134.37262347</v>
@@ -1488,9 +1502,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B48" s="2">
         <v>17453371.366000976</v>
@@ -1506,9 +1520,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B49" s="2">
         <v>631974681.83808231</v>
@@ -1524,9 +1538,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B50" s="2">
         <v>22384509.231985655</v>
@@ -1542,9 +1556,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B51" s="2">
         <v>44081694.087998986</v>
@@ -1560,9 +1574,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>18</v>
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>42</v>
       </c>
       <c r="B52" s="2">
         <v>116366222.3741053</v>
@@ -1578,9 +1592,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B53" s="2">
         <v>73470475.130977377</v>
@@ -1596,9 +1610,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B54" s="2">
         <v>3985512.9275734616</v>
@@ -1614,9 +1628,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B55" s="2">
         <v>216921643.31779629</v>
@@ -1632,9 +1646,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B56" s="2">
         <v>111912840.86971283</v>
@@ -1650,9 +1664,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B57" s="2">
         <v>38902479.599999979</v>
@@ -1668,9 +1682,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B58" s="2">
         <v>139902095.65513271</v>
@@ -1686,9 +1700,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B59" s="2">
         <v>99124756.808401927</v>
@@ -1704,9 +1718,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B60" s="2">
         <v>3587398.5705543738</v>
@@ -1722,9 +1736,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B61" s="2">
         <v>187213003.35159719</v>
@@ -1740,9 +1754,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B62" s="2">
         <v>89366664.555099607</v>
@@ -1758,9 +1772,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B63" s="2">
         <v>40275029.397153586</v>
@@ -1776,9 +1790,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B64" s="2">
         <v>232911565.3273786</v>
@@ -1794,9 +1808,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B65" s="2">
         <v>102342681.22991782</v>
@@ -1812,9 +1826,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B66" s="2">
         <v>115446614.72975284</v>
@@ -1830,9 +1844,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B67" s="2">
         <v>143808730.14188591</v>
@@ -1848,9 +1862,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>40</v>
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>31</v>
       </c>
       <c r="B68" s="2">
         <v>8390581.6147787012</v>
@@ -1866,9 +1880,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B69" s="2">
         <v>19165670.44243494</v>
@@ -1884,9 +1898,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B70" s="2">
         <v>36974755.869999997</v>
@@ -1902,9 +1916,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B71" s="2">
         <v>138864435.72071677</v>
@@ -1920,9 +1934,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B72" s="2">
         <v>28595106.415314708</v>
@@ -1938,9 +1952,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B73" s="2">
         <v>24001378</v>
@@ -1956,9 +1970,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B74" s="2">
         <v>0</v>
@@ -1974,9 +1988,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B75" s="2">
         <v>0</v>
@@ -1995,9 +2009,9 @@
       <c r="G75" s="6"/>
       <c r="H75" s="3"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B76" s="2">
         <v>0</v>
@@ -2013,9 +2027,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B77" s="2">
         <v>0</v>
@@ -2030,6 +2044,725 @@
       <c r="E77">
         <v>2021</v>
       </c>
+    </row>
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" s="2">
+        <v>343396658.30399942</v>
+      </c>
+      <c r="C78" s="9">
+        <v>28616388.191999953</v>
+      </c>
+      <c r="D78" s="2">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" s="2">
+        <v>5121959.1239999998</v>
+      </c>
+      <c r="C79" s="9">
+        <f t="shared" ref="C79:C113" si="4">+B79/12</f>
+        <v>426829.92699999997</v>
+      </c>
+      <c r="D79" s="2">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" s="2">
+        <v>425363079.16699994</v>
+      </c>
+      <c r="C80" s="2">
+        <f t="shared" si="4"/>
+        <v>35446923.263916664</v>
+      </c>
+      <c r="D80" s="2">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" s="2">
+        <v>2782019.7119999998</v>
+      </c>
+      <c r="C81" s="2">
+        <f t="shared" si="4"/>
+        <v>231834.976</v>
+      </c>
+      <c r="D81" s="2">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" s="2">
+        <v>11811048.605999999</v>
+      </c>
+      <c r="C82" s="2">
+        <f t="shared" si="4"/>
+        <v>984254.0504999999</v>
+      </c>
+      <c r="D82" s="2">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B83" s="2">
+        <v>1591958.304</v>
+      </c>
+      <c r="C83" s="2">
+        <f t="shared" si="4"/>
+        <v>132663.19200000001</v>
+      </c>
+      <c r="D83" s="2">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="2">
+        <v>24637656.936000001</v>
+      </c>
+      <c r="C84" s="2">
+        <f t="shared" si="4"/>
+        <v>2053138.078</v>
+      </c>
+      <c r="D84" s="2">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" s="2">
+        <v>336939854.33999991</v>
+      </c>
+      <c r="C85" s="2">
+        <f t="shared" si="4"/>
+        <v>28078321.194999993</v>
+      </c>
+      <c r="D85" s="2">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B86" s="2">
+        <v>681633493.55100107</v>
+      </c>
+      <c r="C86" s="2">
+        <f t="shared" si="4"/>
+        <v>56802791.129250087</v>
+      </c>
+      <c r="D86" s="2">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87" s="2">
+        <v>511903508.63600057</v>
+      </c>
+      <c r="C87" s="2">
+        <f t="shared" si="4"/>
+        <v>42658625.719666712</v>
+      </c>
+      <c r="D87" s="2">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" s="2">
+        <v>192897395.30800003</v>
+      </c>
+      <c r="C88" s="2">
+        <f t="shared" si="4"/>
+        <v>16074782.942333335</v>
+      </c>
+      <c r="D88" s="2">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B89" s="2">
+        <v>776270965.30399942</v>
+      </c>
+      <c r="C89" s="2">
+        <f t="shared" si="4"/>
+        <v>64689247.108666621</v>
+      </c>
+      <c r="D89" s="2">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B90" s="2">
+        <v>15138629.315999998</v>
+      </c>
+      <c r="C90" s="2">
+        <f t="shared" si="4"/>
+        <v>1261552.4429999997</v>
+      </c>
+      <c r="D90" s="2">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B91" s="2">
+        <v>55310570.400000006</v>
+      </c>
+      <c r="C91" s="2">
+        <f t="shared" si="4"/>
+        <v>4609214.2</v>
+      </c>
+      <c r="D91" s="2">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>42</v>
+      </c>
+      <c r="B92" s="2">
+        <v>116981044.84799998</v>
+      </c>
+      <c r="C92" s="2">
+        <f t="shared" si="4"/>
+        <v>9748420.4039999973</v>
+      </c>
+      <c r="D92" s="2">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B93" s="2">
+        <v>108683452.06799999</v>
+      </c>
+      <c r="C93" s="2">
+        <f t="shared" si="4"/>
+        <v>9056954.3389999997</v>
+      </c>
+      <c r="D93" s="2">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B94" s="2">
+        <v>2861263.0079999999</v>
+      </c>
+      <c r="C94" s="2">
+        <f t="shared" si="4"/>
+        <v>238438.584</v>
+      </c>
+      <c r="D94" s="2">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B95" s="2">
+        <v>409080922.10400003</v>
+      </c>
+      <c r="C95" s="2">
+        <f t="shared" si="4"/>
+        <v>34090076.842</v>
+      </c>
+      <c r="D95" s="2">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B96" s="2">
+        <v>201953614.86999997</v>
+      </c>
+      <c r="C96" s="2">
+        <f t="shared" si="4"/>
+        <v>16829467.90583333</v>
+      </c>
+      <c r="D96" s="2">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B97" s="2">
+        <v>76729438.691999972</v>
+      </c>
+      <c r="C97" s="2">
+        <f t="shared" si="4"/>
+        <v>6394119.890999998</v>
+      </c>
+      <c r="D97" s="2">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B98" s="2">
+        <v>372000410.26800036</v>
+      </c>
+      <c r="C98" s="2">
+        <f t="shared" si="4"/>
+        <v>31000034.189000029</v>
+      </c>
+      <c r="D98" s="2">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B99" s="2">
+        <v>137896807.97999999</v>
+      </c>
+      <c r="C99" s="2">
+        <f t="shared" si="4"/>
+        <v>11491400.664999999</v>
+      </c>
+      <c r="D99" s="2">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B100" s="2">
+        <v>6299837.0520000001</v>
+      </c>
+      <c r="C100" s="2">
+        <f t="shared" si="4"/>
+        <v>524986.42099999997</v>
+      </c>
+      <c r="D100" s="2">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B101" s="2">
+        <v>408203615.11200011</v>
+      </c>
+      <c r="C101" s="2">
+        <f t="shared" si="4"/>
+        <v>34016967.926000006</v>
+      </c>
+      <c r="D101" s="2">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B102" s="2">
+        <v>245270465.41600016</v>
+      </c>
+      <c r="C102" s="2">
+        <f t="shared" si="4"/>
+        <v>20439205.451333348</v>
+      </c>
+      <c r="D102" s="2">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B103" s="2">
+        <v>20825395.296000004</v>
+      </c>
+      <c r="C103" s="2">
+        <f t="shared" si="4"/>
+        <v>1735449.6080000002</v>
+      </c>
+      <c r="D103" s="2">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B104" s="2">
+        <v>315789585.59200001</v>
+      </c>
+      <c r="C104" s="2">
+        <f t="shared" si="4"/>
+        <v>26315798.799333334</v>
+      </c>
+      <c r="D104" s="2">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B105" s="2">
+        <v>154527067.88399997</v>
+      </c>
+      <c r="C105" s="2">
+        <f t="shared" si="4"/>
+        <v>12877255.656999998</v>
+      </c>
+      <c r="D105" s="2">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B106" s="2">
+        <v>206528510.81999999</v>
+      </c>
+      <c r="C106" s="2">
+        <f t="shared" si="4"/>
+        <v>17210709.234999999</v>
+      </c>
+      <c r="D106" s="2">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B107" s="2">
+        <v>132003748.92000003</v>
+      </c>
+      <c r="C107" s="2">
+        <f t="shared" si="4"/>
+        <v>11000312.410000002</v>
+      </c>
+      <c r="D107" s="2">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>31</v>
+      </c>
+      <c r="B108" s="2">
+        <v>3004874.196</v>
+      </c>
+      <c r="C108" s="2">
+        <f t="shared" si="4"/>
+        <v>250406.18299999999</v>
+      </c>
+      <c r="D108" s="2">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B109" s="2">
+        <v>9238357.1040000003</v>
+      </c>
+      <c r="C109" s="2">
+        <f t="shared" si="4"/>
+        <v>769863.09200000006</v>
+      </c>
+      <c r="D109" s="2">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B110" s="2">
+        <v>43834723.092000008</v>
+      </c>
+      <c r="C110" s="2">
+        <f t="shared" si="4"/>
+        <v>3652893.5910000005</v>
+      </c>
+      <c r="D110" s="2">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B111" s="2">
+        <v>135042433.24800003</v>
+      </c>
+      <c r="C111" s="2">
+        <f t="shared" si="4"/>
+        <v>11253536.104000002</v>
+      </c>
+      <c r="D111" s="2">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B112" s="2">
+        <v>106448769.876</v>
+      </c>
+      <c r="C112" s="2">
+        <f t="shared" si="4"/>
+        <v>8870730.8230000008</v>
+      </c>
+      <c r="D112" s="2">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B113" s="2">
+        <v>134792803.45199999</v>
+      </c>
+      <c r="C113" s="2">
+        <f t="shared" si="4"/>
+        <v>11232733.620999999</v>
+      </c>
+      <c r="D113" s="2">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="2"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="2"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="2"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="2"/>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="2"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="2"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="2"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="2"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="2"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2037,4 +2770,24 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DBA/Reportes BI/2021/Facturación/Objetivos.xlsx
+++ b/DBA/Reportes BI/2021/Facturación/Objetivos.xlsx
@@ -359,14 +359,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tabla_objetivos" displayName="tabla_objetivos" ref="A1:E113" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A1:E113">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Cesacs"/>
-        <filter val="Primer Nivel"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E113"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Efector" dataDxfId="3"/>
     <tableColumn id="2" name="Objetivo Anual Total" dataDxfId="2" dataCellStyle="Moneda 2"/>
@@ -646,7 +639,7 @@
   <dimension ref="A1:H125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,7 +667,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -692,7 +685,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -710,7 +703,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -728,7 +721,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -746,7 +739,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -782,7 +775,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -800,7 +793,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -818,7 +811,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -836,7 +829,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -854,7 +847,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -872,7 +865,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -890,7 +883,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -908,7 +901,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -926,7 +919,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -944,7 +937,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -962,7 +955,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -980,7 +973,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -998,7 +991,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -1016,7 +1009,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -1034,7 +1027,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -1052,7 +1045,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -1070,7 +1063,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -1088,7 +1081,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -1106,7 +1099,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -1124,7 +1117,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -1142,7 +1135,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
@@ -1160,7 +1153,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -1178,7 +1171,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -1196,7 +1189,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -1214,7 +1207,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1232,7 +1225,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -1250,7 +1243,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -1268,7 +1261,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -1286,7 +1279,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -1304,7 +1297,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -1322,7 +1315,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1340,7 +1333,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>4</v>
       </c>
@@ -1358,7 +1351,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>5</v>
       </c>
@@ -1376,7 +1369,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>6</v>
       </c>
@@ -1394,7 +1387,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>7</v>
       </c>
@@ -1430,7 +1423,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>8</v>
       </c>
@@ -1448,7 +1441,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>9</v>
       </c>
@@ -1466,7 +1459,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>10</v>
       </c>
@@ -1484,7 +1477,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>11</v>
       </c>
@@ -1502,7 +1495,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>12</v>
       </c>
@@ -1520,7 +1513,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>13</v>
       </c>
@@ -1538,7 +1531,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>14</v>
       </c>
@@ -1556,7 +1549,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>15</v>
       </c>
@@ -1574,7 +1567,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>42</v>
       </c>
@@ -1592,7 +1585,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>16</v>
       </c>
@@ -1610,7 +1603,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>17</v>
       </c>
@@ -1628,7 +1621,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>18</v>
       </c>
@@ -1646,7 +1639,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>19</v>
       </c>
@@ -1664,7 +1657,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>20</v>
       </c>
@@ -1682,7 +1675,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>21</v>
       </c>
@@ -1700,7 +1693,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>22</v>
       </c>
@@ -1718,7 +1711,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>23</v>
       </c>
@@ -1736,7 +1729,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>24</v>
       </c>
@@ -1754,7 +1747,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>25</v>
       </c>
@@ -1772,7 +1765,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>26</v>
       </c>
@@ -1790,7 +1783,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>27</v>
       </c>
@@ -1808,7 +1801,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>28</v>
       </c>
@@ -1826,7 +1819,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>29</v>
       </c>
@@ -1844,7 +1837,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>30</v>
       </c>
@@ -1862,7 +1855,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>31</v>
       </c>
@@ -1880,7 +1873,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>32</v>
       </c>
@@ -1898,7 +1891,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>33</v>
       </c>
@@ -1916,7 +1909,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>34</v>
       </c>
@@ -1934,7 +1927,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>35</v>
       </c>
@@ -1952,7 +1945,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>36</v>
       </c>
@@ -1970,7 +1963,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>39</v>
       </c>
@@ -1988,7 +1981,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>39</v>
       </c>
@@ -2009,7 +2002,7 @@
       <c r="G75" s="6"/>
       <c r="H75" s="3"/>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>40</v>
       </c>
@@ -2027,7 +2020,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>40</v>
       </c>
@@ -2045,7 +2038,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>3</v>
       </c>
@@ -2062,7 +2055,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>4</v>
       </c>
@@ -2080,7 +2073,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
         <v>5</v>
       </c>
@@ -2098,7 +2091,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>6</v>
       </c>
@@ -2116,7 +2109,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>7</v>
       </c>
@@ -2152,7 +2145,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
         <v>8</v>
       </c>
@@ -2170,7 +2163,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
         <v>9</v>
       </c>
@@ -2188,7 +2181,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
         <v>10</v>
       </c>
@@ -2206,7 +2199,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>11</v>
       </c>
@@ -2224,7 +2217,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
         <v>12</v>
       </c>
@@ -2242,7 +2235,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
         <v>13</v>
       </c>
@@ -2260,7 +2253,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
         <v>14</v>
       </c>
@@ -2278,7 +2271,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
         <v>15</v>
       </c>
@@ -2296,7 +2289,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>42</v>
       </c>
@@ -2314,7 +2307,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>16</v>
       </c>
@@ -2332,7 +2325,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
         <v>17</v>
       </c>
@@ -2350,7 +2343,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
         <v>18</v>
       </c>
@@ -2368,7 +2361,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
         <v>19</v>
       </c>
@@ -2386,7 +2379,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
         <v>20</v>
       </c>
@@ -2404,7 +2397,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
         <v>21</v>
       </c>
@@ -2422,7 +2415,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
         <v>22</v>
       </c>
@@ -2440,8 +2433,8 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="8" t="s">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B100" s="2">
@@ -2458,7 +2451,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
         <v>24</v>
       </c>
@@ -2476,7 +2469,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
         <v>25</v>
       </c>
@@ -2494,7 +2487,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
         <v>26</v>
       </c>
@@ -2512,7 +2505,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>27</v>
       </c>
@@ -2530,7 +2523,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
         <v>28</v>
       </c>
@@ -2548,7 +2541,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
         <v>29</v>
       </c>
@@ -2566,7 +2559,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
         <v>30</v>
       </c>
@@ -2584,7 +2577,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>31</v>
       </c>
@@ -2602,7 +2595,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
         <v>32</v>
       </c>
@@ -2620,7 +2613,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
         <v>33</v>
       </c>
@@ -2638,7 +2631,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
         <v>34</v>
       </c>
@@ -2656,7 +2649,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
         <v>35</v>
       </c>
@@ -2674,7 +2667,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
         <v>36</v>
       </c>
